--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -6,7 +6,7 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId3"/>
+    <sheet name="master_reward_box" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="1">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="1">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,9 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_scale_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_scale_y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
 </sst>
 </file>
@@ -59,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -69,6 +93,67 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="13">
   <si>
     <t xml:space="preserve">reward_box_id</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box</t>
   </si>
 </sst>
 </file>
@@ -83,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -94,10 +106,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -105,9 +120,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -116,9 +134,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -127,9 +148,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -138,9 +162,12 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -149,9 +176,12 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
